--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-encounter.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -261,8 +261,7 @@
   <si>
     <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.
 医療サービスの提供または患者の健康状態の評価を目的とした、患者と医療提供者との間の相互作用。エンカウンターと表現される。
-【JP-Core仕様】
-外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
+【JP-Core仕様】外来受診、救急受診、入院、退院、対面診察、電話診察、など。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -586,10 +585,6 @@
   </si>
   <si>
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled + / 予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.
-予定｜到着｜トリアージ｜進行中｜保留中｜終了｜キャンセル+.</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
@@ -3733,10 +3728,10 @@
         <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3815,7 +3810,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3838,16 +3833,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3897,7 +3892,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3926,7 +3921,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3949,16 +3944,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3984,14 +3979,14 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4008,7 +4003,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -4026,18 +4021,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4063,10 +4058,10 @@
         <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4117,7 +4112,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4146,7 +4141,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4255,7 +4250,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4366,7 +4361,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4479,7 +4474,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4502,16 +4497,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4537,14 +4532,14 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4561,7 +4556,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>86</v>
@@ -4590,7 +4585,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4613,16 +4608,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4672,7 +4667,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4701,7 +4696,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4724,16 +4719,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4759,14 +4754,14 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4783,7 +4778,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4798,21 +4793,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4835,16 +4830,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4870,14 +4865,14 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4909,7 +4904,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>167</v>
@@ -4918,12 +4913,12 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4946,16 +4941,16 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4981,14 +4976,14 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5005,7 +5000,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5023,22 +5018,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5057,16 +5052,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5116,7 +5111,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5131,21 +5126,21 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5168,16 +5163,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5227,7 +5222,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5242,25 +5237,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5279,16 +5274,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5338,7 +5333,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5353,10 +5348,10 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5367,7 +5362,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5393,10 +5388,10 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5447,7 +5442,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5462,21 +5457,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5585,7 +5580,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5696,7 +5691,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5809,7 +5804,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5832,16 +5827,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5867,14 +5862,14 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5891,7 +5886,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5906,21 +5901,21 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5943,13 +5938,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6000,7 +5995,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6018,18 +6013,18 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6052,13 +6047,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6109,7 +6104,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6124,21 +6119,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6161,16 +6156,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6220,7 +6215,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6235,21 +6230,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6272,16 +6267,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6331,7 +6326,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6346,21 +6341,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6383,16 +6378,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6442,7 +6437,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6457,25 +6452,25 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6494,16 +6489,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6532,11 +6527,11 @@
         <v>110</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6553,7 +6548,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6568,25 +6563,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6605,16 +6600,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6664,7 +6659,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6679,21 +6674,21 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6719,10 +6714,10 @@
         <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6773,7 +6768,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6791,7 +6786,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6802,7 +6797,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6911,7 +6906,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7022,7 +7017,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7135,11 +7130,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7158,16 +7153,16 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7217,7 +7212,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>86</v>
@@ -7232,21 +7227,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7269,13 +7264,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7305,11 +7300,11 @@
         <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7326,7 +7321,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7355,7 +7350,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7378,13 +7373,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7435,7 +7430,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7453,7 +7448,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7464,7 +7459,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7487,16 +7482,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7546,7 +7541,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7564,7 +7559,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7575,7 +7570,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7601,13 +7596,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7657,7 +7652,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7675,7 +7670,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7686,7 +7681,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7795,7 +7790,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7906,7 +7901,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8019,7 +8014,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8045,10 +8040,10 @@
         <v>144</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8099,7 +8094,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8123,12 +8118,12 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8151,16 +8146,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8210,7 +8205,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8228,7 +8223,7 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8239,7 +8234,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8262,16 +8257,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8300,11 +8295,11 @@
         <v>110</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8321,7 +8316,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8339,18 +8334,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8373,16 +8368,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8408,14 +8403,14 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8432,7 +8427,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8456,12 +8451,12 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8484,19 +8479,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8521,14 +8516,14 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8545,7 +8540,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8563,18 +8558,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8597,16 +8592,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8635,11 +8630,11 @@
         <v>110</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8656,7 +8651,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8674,18 +8669,18 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8708,16 +8703,16 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8746,11 +8741,11 @@
         <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
       </c>
@@ -8767,7 +8762,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8785,18 +8780,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8819,16 +8814,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8878,7 +8873,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8896,18 +8891,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>422</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8930,16 +8925,16 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8965,14 +8960,14 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
       </c>
@@ -8989,7 +8984,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9007,18 +9002,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9044,13 +9039,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9100,7 +9095,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9118,7 +9113,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -9129,7 +9124,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9238,7 +9233,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9349,7 +9344,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9462,7 +9457,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9485,16 +9480,16 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9544,7 +9539,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9559,21 +9554,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AK69" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9599,13 +9594,13 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9634,11 +9629,11 @@
         <v>155</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
       </c>
@@ -9655,7 +9650,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9673,7 +9668,7 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9684,7 +9679,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9707,16 +9702,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9742,14 +9737,14 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
       </c>
@@ -9766,7 +9761,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9795,7 +9790,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9818,16 +9813,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9877,7 +9872,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9895,7 +9890,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9906,7 +9901,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9929,16 +9924,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9988,7 +9983,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10003,21 +9998,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>467</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10040,16 +10035,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10099,7 +10094,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10114,10 +10109,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
